--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soroush/Box Sync/01_UIC Courses/Spring 2018/untitled folder/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA364E-C6FD-C047-8958-4560F19EEF37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="23000" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="22995" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LOOP" sheetId="4" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="XOR" sheetId="3" r:id="rId3"/>
     <sheet name="Prob" sheetId="1" r:id="rId4"/>
     <sheet name="Entropy" sheetId="5" r:id="rId5"/>
+    <sheet name="Arbiter-pair flipping" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Loop PUF</t>
   </si>
@@ -64,11 +59,71 @@
   <si>
     <t>Entropy of three PUFs for the flipping experiment</t>
   </si>
+  <si>
+    <t>i,i+1</t>
+  </si>
+  <si>
+    <t>I, i+2</t>
+  </si>
+  <si>
+    <t>I,I+3</t>
+  </si>
+  <si>
+    <t>I, i+4</t>
+  </si>
+  <si>
+    <t>I,i+5</t>
+  </si>
+  <si>
+    <t>I,I+6</t>
+  </si>
+  <si>
+    <t>I,I+7</t>
+  </si>
+  <si>
+    <t>I,I+8</t>
+  </si>
+  <si>
+    <t>I,i+9</t>
+  </si>
+  <si>
+    <t>I, i+10</t>
+  </si>
+  <si>
+    <t>I,i+15</t>
+  </si>
+  <si>
+    <t>I, i+20</t>
+  </si>
+  <si>
+    <t>I, i+25</t>
+  </si>
+  <si>
+    <t>I, i+30</t>
+  </si>
+  <si>
+    <t>I, i+35</t>
+  </si>
+  <si>
+    <t>I,I+40</t>
+  </si>
+  <si>
+    <t>I, i+45</t>
+  </si>
+  <si>
+    <t>I, i+50</t>
+  </si>
+  <si>
+    <t>I, i+55</t>
+  </si>
+  <si>
+    <t>I, i+60</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +173,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -132,6 +187,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -384,7 +440,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8961-4F4A-BC41-137835C21AB1}"/>
             </c:ext>
@@ -398,12 +454,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1185200495"/>
-        <c:axId val="1187177199"/>
+        <c:axId val="104670720"/>
+        <c:axId val="104672256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1185200495"/>
+        <c:axId val="104670720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +502,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187177199"/>
+        <c:crossAx val="104672256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -453,7 +510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187177199"/>
+        <c:axId val="104672256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,7 +561,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185200495"/>
+        <c:crossAx val="104670720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -518,14 +575,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -561,7 +618,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -827,7 +884,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FB0F-504D-85DC-7ABE0E9AA81B}"/>
             </c:ext>
@@ -841,12 +898,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1187062207"/>
-        <c:axId val="1093720207"/>
+        <c:axId val="104550400"/>
+        <c:axId val="104551936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1187062207"/>
+        <c:axId val="104550400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,7 +946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1093720207"/>
+        <c:crossAx val="104551936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1093720207"/>
+        <c:axId val="104551936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +1005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187062207"/>
+        <c:crossAx val="104550400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,14 +1019,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1004,7 +1062,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1270,7 +1328,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-55CD-F04A-B6E8-7F28618BE39B}"/>
             </c:ext>
@@ -1284,12 +1342,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1184915007"/>
-        <c:axId val="1187108159"/>
+        <c:axId val="104601856"/>
+        <c:axId val="104607744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1184915007"/>
+        <c:axId val="104601856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1390,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187108159"/>
+        <c:crossAx val="104607744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1339,7 +1398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187108159"/>
+        <c:axId val="104607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1449,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184915007"/>
+        <c:crossAx val="104601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1404,14 +1463,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1447,7 +1506,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1909,7 +1968,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B129-8C42-B0E3-F0B349F74477}"/>
             </c:ext>
@@ -2335,7 +2394,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B129-8C42-B0E3-F0B349F74477}"/>
             </c:ext>
@@ -2761,7 +2820,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B129-8C42-B0E3-F0B349F74477}"/>
             </c:ext>
@@ -2775,12 +2834,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104131200"/>
-        <c:axId val="104665472"/>
+        <c:axId val="104827520"/>
+        <c:axId val="104833408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104131200"/>
+        <c:axId val="104827520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2790,7 +2850,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104665472"/>
+        <c:crossAx val="104833408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2798,7 +2858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104665472"/>
+        <c:axId val="104833408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104131200"/>
+        <c:crossAx val="104827520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4546,7 +4606,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79E91CD-0B9B-CE45-943D-ABB7A53CAA2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B79E91CD-0B9B-CE45-943D-ABB7A53CAA2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4587,7 +4647,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3FB8406-0775-8F45-A561-777FDD1426E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3FB8406-0775-8F45-A561-777FDD1426E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4628,7 +4688,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD9903B-1AA5-4140-91D9-E3413302FEB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAD9903B-1AA5-4140-91D9-E3413302FEB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4669,7 +4729,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,7 +4793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4766,26 +4826,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4818,23 +4861,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5010,14 +5036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G65"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -5606,7 +5632,7 @@
         <v>0.40365736009715197</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5624,7 +5650,7 @@
         <v>0.39523507329768703</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5642,7 +5668,7 @@
         <v>0.3825693881461999</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5660,7 +5686,7 @@
         <v>0.38445650712732715</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5678,7 +5704,7 @@
         <v>0.39051512117821308</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5696,7 +5722,7 @@
         <v>0.40821090943070187</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5714,7 +5740,7 @@
         <v>0.39330843762902656</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5732,7 +5758,7 @@
         <v>0.41273196690272057</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5750,7 +5776,7 @@
         <v>0.41515308732908446</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5768,7 +5794,7 @@
         <v>0.40112123852425774</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5786,7 +5812,7 @@
         <v>0.34095171629754195</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5804,7 +5830,7 @@
         <v>0.43009586529323507</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5822,7 +5848,7 @@
         <v>0.42834016899544375</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5840,7 +5866,7 @@
         <v>0.3890778517504806</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5858,7 +5884,7 @@
         <v>0.41549820775987667</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5876,7 +5902,7 @@
         <v>0.40210871504248658</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5894,7 +5920,7 @@
         <v>0.41529115805825334</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5912,7 +5938,7 @@
         <v>0.40681329991625664</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5930,7 +5956,7 @@
         <v>0.39437951483964406</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5948,7 +5974,7 @@
         <v>0.42031025982845632</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5966,7 +5992,7 @@
         <v>0.39395130148086782</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5984,7 +6010,7 @@
         <v>0.38481876916707902</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6002,7 +6028,7 @@
         <v>0.39630289758288667</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6020,7 +6046,7 @@
         <v>0.39008428323061273</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6038,7 +6064,7 @@
         <v>0.38770941309178608</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6056,7 +6082,7 @@
         <v>0.4152221264542314</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6074,7 +6100,7 @@
         <v>0.41023198304398228</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6092,7 +6118,7 @@
         <v>0.40112123852425774</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6110,7 +6136,7 @@
         <v>0.38074951679649444</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6128,7 +6154,7 @@
         <v>0.38503602672666304</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6146,7 +6172,7 @@
         <v>0.36263104919261985</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6164,7 +6190,7 @@
         <v>0.36919909054298905</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6182,7 +6208,7 @@
         <v>0.43319021812016756</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6207,14 +6233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -6803,7 +6829,7 @@
         <v>0.99822464132135513</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6821,7 +6847,7 @@
         <v>0.99943761748560833</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6839,7 +6865,7 @@
         <v>0.99997639853458575</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6857,7 +6883,7 @@
         <v>0.9997704077191385</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6875,7 +6901,7 @@
         <v>0.99867820303208477</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6893,7 +6919,7 @@
         <v>0.99722536091536984</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6911,7 +6937,7 @@
         <v>0.99521037888921859</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6929,7 +6955,7 @@
         <v>0.99265818499008629</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6947,7 +6973,7 @@
         <v>0.98976075104635242</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6965,7 +6991,7 @@
         <v>0.98674257391230391</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6983,7 +7009,7 @@
         <v>0.98280633102887238</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7001,7 +7027,7 @@
         <v>0.97868329675275345</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7019,7 +7045,7 @@
         <v>0.97352213709608126</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7037,7 +7063,7 @@
         <v>0.96715828272607862</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7055,7 +7081,7 @@
         <v>0.95969177746464207</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7073,7 +7099,7 @@
         <v>0.95387213088403144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7091,7 +7117,7 @@
         <v>0.94303126856706121</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7109,7 +7135,7 @@
         <v>0.93360279371226662</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7127,7 +7153,7 @@
         <v>0.92596239617192633</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7145,7 +7171,7 @@
         <v>0.91363385402739894</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7163,7 +7189,7 @@
         <v>0.89912982502904026</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7181,7 +7207,7 @@
         <v>0.88413251667609782</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7199,7 +7225,7 @@
         <v>0.86812629237326089</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7217,7 +7243,7 @@
         <v>0.85240824199088494</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7235,7 +7261,7 @@
         <v>0.83106130836152015</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7253,7 +7279,7 @@
         <v>0.80812478952825317</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7271,7 +7297,7 @@
         <v>0.7817231913097431</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7289,7 +7315,7 @@
         <v>0.74778105565975661</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7307,7 +7333,7 @@
         <v>0.70811782016144087</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7325,7 +7351,7 @@
         <v>0.66663895065345358</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7343,7 +7369,7 @@
         <v>0.61378017216977143</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7361,7 +7387,7 @@
         <v>0.5508747094013754</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7379,7 +7405,7 @@
         <v>0.46505251720046242</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7404,14 +7430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -8000,7 +8026,7 @@
         <v>0.9999979640678005</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8018,7 +8044,7 @@
         <v>0.99999977378540572</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8036,7 +8062,7 @@
         <v>0.99999755780445665</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8054,7 +8080,7 @@
         <v>0.99999675797327559</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8072,7 +8098,7 @@
         <v>0.99999927865235949</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8090,7 +8116,7 @@
         <v>0.99997298219277286</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8108,7 +8134,7 @@
         <v>0.99999497249048153</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8126,7 +8152,7 @@
         <v>0.99999481898736708</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8144,7 +8170,7 @@
         <v>0.99999722886959119</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8162,7 +8188,7 @@
         <v>0.9999954191498579</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8180,7 +8206,7 @@
         <v>0.99998526253143616</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8198,7 +8224,7 @@
         <v>0.99994664847973014</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8216,7 +8242,7 @@
         <v>0.99985454259740913</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8234,7 +8260,7 @@
         <v>0.9999069083887262</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8252,7 +8278,7 @@
         <v>0.99986657544940694</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8270,7 +8296,7 @@
         <v>0.99939827326488762</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8288,7 +8314,7 @@
         <v>0.9994424419521506</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8306,7 +8332,7 @@
         <v>0.99916792319792624</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8324,7 +8350,7 @@
         <v>0.9987918049330905</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8342,7 +8368,7 @@
         <v>0.99828991641219633</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8360,7 +8386,7 @@
         <v>0.99722536091536984</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -8378,7 +8404,7 @@
         <v>0.99516316114873304</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -8396,7 +8422,7 @@
         <v>0.99453321204194711</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -8414,7 +8440,7 @@
         <v>0.99241691720298619</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -8432,7 +8458,7 @@
         <v>0.98869940828849745</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -8450,7 +8476,7 @@
         <v>0.98423591116744591</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -8468,7 +8494,7 @@
         <v>0.97657392305877744</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -8486,7 +8512,7 @@
         <v>0.96856260055821397</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8504,7 +8530,7 @@
         <v>0.95758875583182246</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8522,7 +8548,7 @@
         <v>0.94294849269766012</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8540,7 +8566,7 @@
         <v>0.91754065784879435</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8558,7 +8584,7 @@
         <v>0.86318099217889221</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8576,7 +8602,7 @@
         <v>0.79075710762271512</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8601,14 +8627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -9241,7 +9267,7 @@
         <v>49.868000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9261,7 +9287,7 @@
         <v>49.911999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -9281,7 +9307,7 @@
         <v>49.926000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -9301,7 +9327,7 @@
         <v>50.04</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -9321,7 +9347,7 @@
         <v>49.88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -9341,7 +9367,7 @@
         <v>50.158000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9361,7 +9387,7 @@
         <v>49.71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -9381,7 +9407,7 @@
         <v>49.63</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9401,7 +9427,7 @@
         <v>49.862000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -9421,7 +9447,7 @@
         <v>49.96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -9441,7 +9467,7 @@
         <v>50.155999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9461,7 +9487,7 @@
         <v>49.988</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -9481,7 +9507,7 @@
         <v>50.04</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -9501,7 +9527,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -9521,7 +9547,7 @@
         <v>50.036000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -9541,7 +9567,7 @@
         <v>49.944000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -9561,7 +9587,7 @@
         <v>50.246000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -9581,7 +9607,7 @@
         <v>49.975999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -9601,7 +9627,7 @@
         <v>50.116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -9621,7 +9647,7 @@
         <v>49.981999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -9641,7 +9667,7 @@
         <v>49.661999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9661,7 +9687,7 @@
         <v>49.631999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9681,7 +9707,7 @@
         <v>49.426000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9701,7 +9727,7 @@
         <v>49.738</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9721,7 +9747,7 @@
         <v>49.347999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9741,7 +9767,7 @@
         <v>49.378</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9761,7 +9787,7 @@
         <v>49.234000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9781,7 +9807,7 @@
         <v>48.798000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9801,7 +9827,7 @@
         <v>47.887999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9821,7 +9847,7 @@
         <v>47.192</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9841,7 +9867,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9861,7 +9887,7 @@
         <v>44.066000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9881,7 +9907,7 @@
         <v>39.345999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9908,14 +9934,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5029EA08-1F60-7640-ADDE-87269B80AD34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -10365,7 +10391,7 @@
         <v>0.9999979640678005</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10379,7 +10405,7 @@
         <v>0.99999977378540572</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10393,7 +10419,7 @@
         <v>0.99999755780445665</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10407,7 +10433,7 @@
         <v>0.99999675797327559</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10421,7 +10447,7 @@
         <v>0.99999927865235949</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10435,7 +10461,7 @@
         <v>0.99997298219277286</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10449,7 +10475,7 @@
         <v>0.99999497249048153</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -10463,7 +10489,7 @@
         <v>0.99999481898736708</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -10477,7 +10503,7 @@
         <v>0.99999722886959119</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -10491,7 +10517,7 @@
         <v>0.9999954191498579</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -10505,7 +10531,7 @@
         <v>0.99998526253143616</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -10519,7 +10545,7 @@
         <v>0.99994664847973014</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -10533,7 +10559,7 @@
         <v>0.99985454259740913</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10547,7 +10573,7 @@
         <v>0.9999069083887262</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10561,7 +10587,7 @@
         <v>0.99986657544940694</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10575,7 +10601,7 @@
         <v>0.99939827326488762</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -10589,7 +10615,7 @@
         <v>0.9994424419521506</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10603,7 +10629,7 @@
         <v>0.99916792319792624</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10617,7 +10643,7 @@
         <v>0.9987918049330905</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -10631,7 +10657,7 @@
         <v>0.99828991641219633</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -10645,7 +10671,7 @@
         <v>0.99722536091536984</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -10659,7 +10685,7 @@
         <v>0.99516316114873304</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -10673,7 +10699,7 @@
         <v>0.99453321204194711</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -10687,7 +10713,7 @@
         <v>0.99241691720298619</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -10701,7 +10727,7 @@
         <v>0.98869940828849745</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -10715,7 +10741,7 @@
         <v>0.98423591116744591</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -10729,7 +10755,7 @@
         <v>0.97657392305877744</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -10743,7 +10769,7 @@
         <v>0.96856260055821397</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -10757,7 +10783,7 @@
         <v>0.95758875583182246</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -10771,7 +10797,7 @@
         <v>0.94294849269766012</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -10785,7 +10811,7 @@
         <v>0.91754065784879435</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -10799,7 +10825,7 @@
         <v>0.86318099217889221</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -10813,7 +10839,7 @@
         <v>0.79075710762271512</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -10825,6 +10851,4243 @@
       </c>
       <c r="D65">
         <v>0.60253521799822674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.91805000000000003</v>
+      </c>
+      <c r="C2">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.85745000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.84030000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.81984999999999997</v>
+      </c>
+      <c r="G2">
+        <v>0.80525000000000002</v>
+      </c>
+      <c r="H2">
+        <v>0.77224999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="J2">
+        <v>0.75529999999999997</v>
+      </c>
+      <c r="K2">
+        <v>0.74255000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.68864999999999998</v>
+      </c>
+      <c r="M2">
+        <v>0.62014999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.5696</v>
+      </c>
+      <c r="O2">
+        <v>0.52585000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.46944999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.41744999999999999</v>
+      </c>
+      <c r="R2">
+        <v>0.3594</v>
+      </c>
+      <c r="S2">
+        <v>0.31364999999999998</v>
+      </c>
+      <c r="T2">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="U2">
+        <v>0.15440000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.91264999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.85755000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="F3">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.79974999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.76934999999999998</v>
+      </c>
+      <c r="I3">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.75380000000000003</v>
+      </c>
+      <c r="K3">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.61965000000000003</v>
+      </c>
+      <c r="N3">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.52844999999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.47225</v>
+      </c>
+      <c r="Q3">
+        <v>0.41470000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.36130000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.31524999999999997</v>
+      </c>
+      <c r="T3">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0.16134999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.89034999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.85360000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.83925000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.8175</v>
+      </c>
+      <c r="G4">
+        <v>0.7994</v>
+      </c>
+      <c r="H4">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.76595000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.75519999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="L4">
+        <v>0.69025000000000003</v>
+      </c>
+      <c r="M4">
+        <v>0.61975000000000002</v>
+      </c>
+      <c r="N4">
+        <v>0.56964999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.52564999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.47115000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="R4">
+        <v>0.36709999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.31225000000000003</v>
+      </c>
+      <c r="T4">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.17085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="C5">
+        <v>0.8881</v>
+      </c>
+      <c r="D5">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.83760000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="G5">
+        <v>0.80069999999999997</v>
+      </c>
+      <c r="H5">
+        <v>0.76885000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="K5">
+        <v>0.7369</v>
+      </c>
+      <c r="L5">
+        <v>0.68930000000000002</v>
+      </c>
+      <c r="M5">
+        <v>0.61545000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.52795000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.47375</v>
+      </c>
+      <c r="Q5">
+        <v>0.41385</v>
+      </c>
+      <c r="R5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="S5">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.2452</v>
+      </c>
+      <c r="U5">
+        <v>0.1749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.86194999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.8458</v>
+      </c>
+      <c r="F6">
+        <v>0.82155</v>
+      </c>
+      <c r="G6">
+        <v>0.80354999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.75924999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.74250000000000005</v>
+      </c>
+      <c r="K6">
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.69</v>
+      </c>
+      <c r="M6">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="N6">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.52664999999999995</v>
+      </c>
+      <c r="P6">
+        <v>0.47604999999999997</v>
+      </c>
+      <c r="Q6">
+        <v>0.41404999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.36714999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="T6">
+        <v>0.24904999999999999</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.92484999999999995</v>
+      </c>
+      <c r="C7">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.87165000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.82445000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.80735000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.78185000000000004</v>
+      </c>
+      <c r="I7">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.73224999999999996</v>
+      </c>
+      <c r="L7">
+        <v>0.68855</v>
+      </c>
+      <c r="M7">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="O7">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.4793</v>
+      </c>
+      <c r="Q7">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="S7">
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="E8">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0.8256</v>
+      </c>
+      <c r="G8">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.78254999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.76424999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.75375000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="L8">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="N8">
+        <v>0.57435000000000003</v>
+      </c>
+      <c r="O8">
+        <v>0.53025</v>
+      </c>
+      <c r="P8">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.40994999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="S8">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.25024999999999997</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.94325000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.89285000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.87214999999999998</v>
+      </c>
+      <c r="E9">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.78664999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.76765000000000005</v>
+      </c>
+      <c r="J9">
+        <v>0.74734999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.73719999999999997</v>
+      </c>
+      <c r="L9">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.62044999999999995</v>
+      </c>
+      <c r="N9">
+        <v>0.57084999999999997</v>
+      </c>
+      <c r="O9">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="P9">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="Q9">
+        <v>0.41205000000000003</v>
+      </c>
+      <c r="R9">
+        <v>0.35775000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="T9">
+        <v>0.24804999999999999</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.92195000000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.8851</v>
+      </c>
+      <c r="D10">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.76729999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.73345000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.69184999999999997</v>
+      </c>
+      <c r="M10">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="N10">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="O10">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="P10">
+        <v>0.48054999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.35615000000000002</v>
+      </c>
+      <c r="S10">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.25364999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.92105000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.87775000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.82950000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.79959999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.78805000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.76964999999999995</v>
+      </c>
+      <c r="J11">
+        <v>0.74834999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="M11">
+        <v>0.62695000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.56469999999999998</v>
+      </c>
+      <c r="O11">
+        <v>0.53354999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.48615000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>0.41139999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.30864999999999998</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.92679999999999996</v>
+      </c>
+      <c r="C12">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.86365000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.84924999999999995</v>
+      </c>
+      <c r="F12">
+        <v>0.8286</v>
+      </c>
+      <c r="G12">
+        <v>0.7974</v>
+      </c>
+      <c r="H12">
+        <v>0.78715000000000002</v>
+      </c>
+      <c r="I12">
+        <v>0.76649999999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.75475000000000003</v>
+      </c>
+      <c r="K12">
+        <v>0.73140000000000005</v>
+      </c>
+      <c r="L12">
+        <v>0.68855</v>
+      </c>
+      <c r="M12">
+        <v>0.62719999999999998</v>
+      </c>
+      <c r="N12">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="O12">
+        <v>0.5373</v>
+      </c>
+      <c r="P12">
+        <v>0.48735000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0.40834999999999999</v>
+      </c>
+      <c r="R12">
+        <v>0.35785</v>
+      </c>
+      <c r="S12">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="C13">
+        <v>0.88114999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="F13">
+        <v>0.82565</v>
+      </c>
+      <c r="G13">
+        <v>0.79974999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.78095000000000003</v>
+      </c>
+      <c r="I13">
+        <v>0.76354999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.75514999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.7349</v>
+      </c>
+      <c r="L13">
+        <v>0.68315000000000003</v>
+      </c>
+      <c r="M13">
+        <v>0.62895000000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="O13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="P13">
+        <v>0.48694999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.41234999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.35959999999999998</v>
+      </c>
+      <c r="S13">
+        <v>0.30495</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.90874999999999995</v>
+      </c>
+      <c r="C14">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="D14">
+        <v>0.85965000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.83404999999999996</v>
+      </c>
+      <c r="F14">
+        <v>0.82535000000000003</v>
+      </c>
+      <c r="G14">
+        <v>0.79554999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I14">
+        <v>0.76685000000000003</v>
+      </c>
+      <c r="J14">
+        <v>0.75785000000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.67649999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.62655000000000005</v>
+      </c>
+      <c r="N14">
+        <v>0.56079999999999997</v>
+      </c>
+      <c r="O14">
+        <v>0.52990000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="Q14">
+        <v>0.41094999999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.35765000000000002</v>
+      </c>
+      <c r="S14">
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="C15">
+        <v>0.87805</v>
+      </c>
+      <c r="D15">
+        <v>0.86034999999999995</v>
+      </c>
+      <c r="E15">
+        <v>0.83679999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.82435000000000003</v>
+      </c>
+      <c r="G15">
+        <v>0.7923</v>
+      </c>
+      <c r="H15">
+        <v>0.77785000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.77010000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="K15">
+        <v>0.7379</v>
+      </c>
+      <c r="L15">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="M15">
+        <v>0.62605</v>
+      </c>
+      <c r="N15">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="O15">
+        <v>0.52775000000000005</v>
+      </c>
+      <c r="P15">
+        <v>0.48644999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.40860000000000002</v>
+      </c>
+      <c r="R15">
+        <v>0.3614</v>
+      </c>
+      <c r="S15">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.88754999999999995</v>
+      </c>
+      <c r="D16">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="E16">
+        <v>0.84075</v>
+      </c>
+      <c r="F16">
+        <v>0.81464999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.78974999999999995</v>
+      </c>
+      <c r="H16">
+        <v>0.78354999999999997</v>
+      </c>
+      <c r="I16">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.76465000000000005</v>
+      </c>
+      <c r="K16">
+        <v>0.73814999999999997</v>
+      </c>
+      <c r="L16">
+        <v>0.68020000000000003</v>
+      </c>
+      <c r="M16">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="N16">
+        <v>0.5595</v>
+      </c>
+      <c r="O16">
+        <v>0.53195000000000003</v>
+      </c>
+      <c r="P16">
+        <v>0.4909</v>
+      </c>
+      <c r="Q16">
+        <v>0.4113</v>
+      </c>
+      <c r="R16">
+        <v>0.36345</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.91625000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.89405000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="E17">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.79354999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="I17">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="J17">
+        <v>0.75865000000000005</v>
+      </c>
+      <c r="K17">
+        <v>0.73924999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.67805000000000004</v>
+      </c>
+      <c r="M17">
+        <v>0.62934999999999997</v>
+      </c>
+      <c r="N17">
+        <v>0.5615</v>
+      </c>
+      <c r="O17">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.48975000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.3604</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.92854999999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.86365000000000003</v>
+      </c>
+      <c r="E18">
+        <v>0.8367</v>
+      </c>
+      <c r="F18">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="G18">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="H18">
+        <v>0.78410000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.76629999999999998</v>
+      </c>
+      <c r="J18">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="K18">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="L18">
+        <v>0.67405000000000004</v>
+      </c>
+      <c r="M18">
+        <v>0.62644999999999995</v>
+      </c>
+      <c r="N18">
+        <v>0.56125000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.52639999999999998</v>
+      </c>
+      <c r="P18">
+        <v>0.48525000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>0.41465000000000002</v>
+      </c>
+      <c r="R18">
+        <v>0.36065000000000003</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.91795000000000004</v>
+      </c>
+      <c r="C19">
+        <v>0.89419999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.86355000000000004</v>
+      </c>
+      <c r="E19">
+        <v>0.82574999999999998</v>
+      </c>
+      <c r="F19">
+        <v>0.81984999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.78325</v>
+      </c>
+      <c r="I19">
+        <v>0.75995000000000001</v>
+      </c>
+      <c r="J19">
+        <v>0.75954999999999995</v>
+      </c>
+      <c r="K19">
+        <v>0.73055000000000003</v>
+      </c>
+      <c r="L19">
+        <v>0.66564999999999996</v>
+      </c>
+      <c r="M19">
+        <v>0.62605</v>
+      </c>
+      <c r="N19">
+        <v>0.56115000000000004</v>
+      </c>
+      <c r="O19">
+        <v>0.52595000000000003</v>
+      </c>
+      <c r="P19">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.36435000000000001</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.86085</v>
+      </c>
+      <c r="E20">
+        <v>0.82394999999999996</v>
+      </c>
+      <c r="F20">
+        <v>0.82445000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.79764999999999997</v>
+      </c>
+      <c r="H20">
+        <v>0.78444999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.76580000000000004</v>
+      </c>
+      <c r="J20">
+        <v>0.75714999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.73729999999999996</v>
+      </c>
+      <c r="L20">
+        <v>0.67020000000000002</v>
+      </c>
+      <c r="M20">
+        <v>0.62214999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="O20">
+        <v>0.52634999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.48585</v>
+      </c>
+      <c r="Q20">
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="R20">
+        <v>0.36575000000000002</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.91515000000000002</v>
+      </c>
+      <c r="C21">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="D21">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.82784999999999997</v>
+      </c>
+      <c r="F21">
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="G21">
+        <v>0.80369999999999997</v>
+      </c>
+      <c r="H21">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.76785000000000003</v>
+      </c>
+      <c r="J21">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="K21">
+        <v>0.73780000000000001</v>
+      </c>
+      <c r="L21">
+        <v>0.66895000000000004</v>
+      </c>
+      <c r="M21">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="N21">
+        <v>0.56225000000000003</v>
+      </c>
+      <c r="O21">
+        <v>0.53125</v>
+      </c>
+      <c r="P21">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.92605000000000004</v>
+      </c>
+      <c r="C22">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="D22">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="F22">
+        <v>0.82245000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="H22">
+        <v>0.78790000000000004</v>
+      </c>
+      <c r="I22">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="J22">
+        <v>0.75565000000000004</v>
+      </c>
+      <c r="K22">
+        <v>0.74134999999999995</v>
+      </c>
+      <c r="L22">
+        <v>0.66825000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="N22">
+        <v>0.55774999999999997</v>
+      </c>
+      <c r="O22">
+        <v>0.53305000000000002</v>
+      </c>
+      <c r="P22">
+        <v>0.47554999999999997</v>
+      </c>
+      <c r="Q22">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.93110000000000004</v>
+      </c>
+      <c r="C23">
+        <v>0.88444999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.85745000000000005</v>
+      </c>
+      <c r="E23">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.82140000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.80959999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.78979999999999995</v>
+      </c>
+      <c r="I23">
+        <v>0.76915</v>
+      </c>
+      <c r="J23">
+        <v>0.75675000000000003</v>
+      </c>
+      <c r="K23">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="L23">
+        <v>0.67135</v>
+      </c>
+      <c r="M23">
+        <v>0.62534999999999996</v>
+      </c>
+      <c r="N23">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="P23">
+        <v>0.47804999999999997</v>
+      </c>
+      <c r="Q23">
+        <v>0.41585</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.91144999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.87790000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.86685000000000001</v>
+      </c>
+      <c r="E24">
+        <v>0.83255000000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="G24">
+        <v>0.80559999999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.78954999999999997</v>
+      </c>
+      <c r="I24">
+        <v>0.77080000000000004</v>
+      </c>
+      <c r="J24">
+        <v>0.74855000000000005</v>
+      </c>
+      <c r="K24">
+        <v>0.72924999999999995</v>
+      </c>
+      <c r="L24">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="M24">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="N24">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O24">
+        <v>0.52595000000000003</v>
+      </c>
+      <c r="P24">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.41970000000000002</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="D25">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G25">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="H25">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="I25">
+        <v>0.77154999999999996</v>
+      </c>
+      <c r="J25">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.73709999999999998</v>
+      </c>
+      <c r="L25">
+        <v>0.66884999999999994</v>
+      </c>
+      <c r="M25">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="N25">
+        <v>0.55664999999999998</v>
+      </c>
+      <c r="O25">
+        <v>0.52615000000000001</v>
+      </c>
+      <c r="P25">
+        <v>0.48120000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>0.42035</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.89234999999999998</v>
+      </c>
+      <c r="D26">
+        <v>0.86785000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.84660000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.82130000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0.79695000000000005</v>
+      </c>
+      <c r="H26">
+        <v>0.78385000000000005</v>
+      </c>
+      <c r="I26">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="J26">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="K26">
+        <v>0.73575000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="M26">
+        <v>0.62924999999999998</v>
+      </c>
+      <c r="N26">
+        <v>0.55915000000000004</v>
+      </c>
+      <c r="O26">
+        <v>0.52754999999999996</v>
+      </c>
+      <c r="P26">
+        <v>0.48215000000000002</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0.92174999999999996</v>
+      </c>
+      <c r="C27">
+        <v>0.89095000000000002</v>
+      </c>
+      <c r="D27">
+        <v>0.85675000000000001</v>
+      </c>
+      <c r="E27">
+        <v>0.85235000000000005</v>
+      </c>
+      <c r="F27">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="G27">
+        <v>0.7923</v>
+      </c>
+      <c r="H27">
+        <v>0.78654999999999997</v>
+      </c>
+      <c r="I27">
+        <v>0.77244999999999997</v>
+      </c>
+      <c r="J27">
+        <v>0.74924999999999997</v>
+      </c>
+      <c r="K27">
+        <v>0.7359</v>
+      </c>
+      <c r="L27">
+        <v>0.67315000000000003</v>
+      </c>
+      <c r="M27">
+        <v>0.62734999999999996</v>
+      </c>
+      <c r="N27">
+        <v>0.55935000000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.52954999999999997</v>
+      </c>
+      <c r="P27">
+        <v>0.48354999999999998</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0.91795000000000004</v>
+      </c>
+      <c r="C28">
+        <v>0.88295000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.86034999999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="H28">
+        <v>0.78695000000000004</v>
+      </c>
+      <c r="I28">
+        <v>0.77185000000000004</v>
+      </c>
+      <c r="J28">
+        <v>0.75334999999999996</v>
+      </c>
+      <c r="K28">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="L28">
+        <v>0.67125000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="N28">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="O28">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="P28">
+        <v>0.48485</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="C29">
+        <v>0.88624999999999998</v>
+      </c>
+      <c r="D29">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="E29">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.81794999999999995</v>
+      </c>
+      <c r="G29">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.7792</v>
+      </c>
+      <c r="I29">
+        <v>0.76160000000000005</v>
+      </c>
+      <c r="J29">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="K29">
+        <v>0.74819999999999998</v>
+      </c>
+      <c r="L29">
+        <v>0.6744</v>
+      </c>
+      <c r="M29">
+        <v>0.61970000000000003</v>
+      </c>
+      <c r="N29">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="O29">
+        <v>0.52370000000000005</v>
+      </c>
+      <c r="P29">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0.91915000000000002</v>
+      </c>
+      <c r="C30">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D30">
+        <v>0.87275000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.84504999999999997</v>
+      </c>
+      <c r="F30">
+        <v>0.82464999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.79874999999999996</v>
+      </c>
+      <c r="H30">
+        <v>0.77854999999999996</v>
+      </c>
+      <c r="I30">
+        <v>0.76385000000000003</v>
+      </c>
+      <c r="J30">
+        <v>0.75549999999999995</v>
+      </c>
+      <c r="K30">
+        <v>0.75065000000000004</v>
+      </c>
+      <c r="L30">
+        <v>0.67390000000000005</v>
+      </c>
+      <c r="M30">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="N30">
+        <v>0.55295000000000005</v>
+      </c>
+      <c r="O30">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="P30">
+        <v>0.48070000000000002</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0.89905000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.89144999999999996</v>
+      </c>
+      <c r="D31">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="E31">
+        <v>0.83865000000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G31">
+        <v>0.79759999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.78115000000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.76754999999999995</v>
+      </c>
+      <c r="J31">
+        <v>0.753</v>
+      </c>
+      <c r="K31">
+        <v>0.74985000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.68045</v>
+      </c>
+      <c r="M31">
+        <v>0.62390000000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.55654999999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="C32">
+        <v>0.8931</v>
+      </c>
+      <c r="D32">
+        <v>0.85465000000000002</v>
+      </c>
+      <c r="E32">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="F32">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="G32">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="I32">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="J32">
+        <v>0.75875000000000004</v>
+      </c>
+      <c r="K32">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="L32">
+        <v>0.68364999999999998</v>
+      </c>
+      <c r="M32">
+        <v>0.61904999999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="O32">
+        <v>0.5212</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0.92395000000000005</v>
+      </c>
+      <c r="C33">
+        <v>0.88965000000000005</v>
+      </c>
+      <c r="D33">
+        <v>0.85494999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="F33">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.79364999999999997</v>
+      </c>
+      <c r="H33">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="I33">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.74824999999999997</v>
+      </c>
+      <c r="L33">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="M33">
+        <v>0.62175000000000002</v>
+      </c>
+      <c r="N33">
+        <v>0.55894999999999995</v>
+      </c>
+      <c r="O33">
+        <v>0.51739999999999997</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0.92154999999999998</v>
+      </c>
+      <c r="C34">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="D34">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="E34">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="F34">
+        <v>0.82035000000000002</v>
+      </c>
+      <c r="G34">
+        <v>0.78859999999999997</v>
+      </c>
+      <c r="H34">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="I34">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="J34">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="L34">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="M34">
+        <v>0.62355000000000005</v>
+      </c>
+      <c r="N34">
+        <v>0.56320000000000003</v>
+      </c>
+      <c r="O34">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0.93115000000000003</v>
+      </c>
+      <c r="C35">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="D35">
+        <v>0.86114999999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.83684999999999998</v>
+      </c>
+      <c r="F35">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="G35">
+        <v>0.7923</v>
+      </c>
+      <c r="H35">
+        <v>0.78444999999999998</v>
+      </c>
+      <c r="I35">
+        <v>0.76654999999999995</v>
+      </c>
+      <c r="J35">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="K35">
+        <v>0.74524999999999997</v>
+      </c>
+      <c r="L35">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="M35">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="N35">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="O35">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="D36">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="E36">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="F36">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.79384999999999994</v>
+      </c>
+      <c r="H36">
+        <v>0.78605000000000003</v>
+      </c>
+      <c r="I36">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="J36">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.75044999999999995</v>
+      </c>
+      <c r="L36">
+        <v>0.68454999999999999</v>
+      </c>
+      <c r="M36">
+        <v>0.62385000000000002</v>
+      </c>
+      <c r="N36">
+        <v>0.56635000000000002</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>0.9214</v>
+      </c>
+      <c r="C37">
+        <v>0.88219999999999998</v>
+      </c>
+      <c r="D37">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="E37">
+        <v>0.83565</v>
+      </c>
+      <c r="F37">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.80054999999999998</v>
+      </c>
+      <c r="H37">
+        <v>0.78874999999999995</v>
+      </c>
+      <c r="I37">
+        <v>0.7752</v>
+      </c>
+      <c r="J37">
+        <v>0.76044999999999996</v>
+      </c>
+      <c r="K37">
+        <v>0.74960000000000004</v>
+      </c>
+      <c r="L37">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="M37">
+        <v>0.62214999999999998</v>
+      </c>
+      <c r="N37">
+        <v>0.56794999999999995</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="C38">
+        <v>0.88485000000000003</v>
+      </c>
+      <c r="D38">
+        <v>0.85404999999999998</v>
+      </c>
+      <c r="E38">
+        <v>0.83225000000000005</v>
+      </c>
+      <c r="F38">
+        <v>0.81705000000000005</v>
+      </c>
+      <c r="G38">
+        <v>0.8034</v>
+      </c>
+      <c r="H38">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="I38">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="J38">
+        <v>0.76285000000000003</v>
+      </c>
+      <c r="K38">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="L38">
+        <v>0.6845</v>
+      </c>
+      <c r="M38">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="N38">
+        <v>0.57020000000000004</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>0.91579999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="D39">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="E39">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="F39">
+        <v>0.81584999999999996</v>
+      </c>
+      <c r="G39">
+        <v>0.80684999999999996</v>
+      </c>
+      <c r="H39">
+        <v>0.7974</v>
+      </c>
+      <c r="I39">
+        <v>0.77910000000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.76415</v>
+      </c>
+      <c r="K39">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="L39">
+        <v>0.6875</v>
+      </c>
+      <c r="M39">
+        <v>0.62455000000000005</v>
+      </c>
+      <c r="N39">
+        <v>0.57110000000000005</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>0.92620000000000002</v>
+      </c>
+      <c r="C40">
+        <v>0.89715</v>
+      </c>
+      <c r="D40">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="F40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="G40">
+        <v>0.8115</v>
+      </c>
+      <c r="H40">
+        <v>0.79384999999999994</v>
+      </c>
+      <c r="I40">
+        <v>0.77595000000000003</v>
+      </c>
+      <c r="J40">
+        <v>0.76044999999999996</v>
+      </c>
+      <c r="K40">
+        <v>0.74865000000000004</v>
+      </c>
+      <c r="L40">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="M40">
+        <v>0.62690000000000001</v>
+      </c>
+      <c r="N40">
+        <v>0.57540000000000002</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0.93415000000000004</v>
+      </c>
+      <c r="C41">
+        <v>0.88815</v>
+      </c>
+      <c r="D41">
+        <v>0.86944999999999995</v>
+      </c>
+      <c r="E41">
+        <v>0.84235000000000004</v>
+      </c>
+      <c r="F41">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="G41">
+        <v>0.81145</v>
+      </c>
+      <c r="H41">
+        <v>0.79415000000000002</v>
+      </c>
+      <c r="I41">
+        <v>0.77495000000000003</v>
+      </c>
+      <c r="J41">
+        <v>0.75944999999999996</v>
+      </c>
+      <c r="K41">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="L41">
+        <v>0.68179999999999996</v>
+      </c>
+      <c r="M41">
+        <v>0.62465000000000004</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C42">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.87534999999999996</v>
+      </c>
+      <c r="E42">
+        <v>0.83989999999999998</v>
+      </c>
+      <c r="F42">
+        <v>0.8175</v>
+      </c>
+      <c r="G42">
+        <v>0.80320000000000003</v>
+      </c>
+      <c r="H42">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="I42">
+        <v>0.78075000000000006</v>
+      </c>
+      <c r="J42">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="K42">
+        <v>0.74409999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="M42">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.879</v>
+      </c>
+      <c r="E43">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="F43">
+        <v>0.81935000000000002</v>
+      </c>
+      <c r="G43">
+        <v>0.80495000000000005</v>
+      </c>
+      <c r="H43">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="I43">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="J43">
+        <v>0.76265000000000005</v>
+      </c>
+      <c r="K43">
+        <v>0.74124999999999996</v>
+      </c>
+      <c r="L43">
+        <v>0.67654999999999998</v>
+      </c>
+      <c r="M43">
+        <v>0.62175000000000002</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>0.93135000000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="D44">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="E44">
+        <v>0.83289999999999997</v>
+      </c>
+      <c r="F44">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="G44">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="H44">
+        <v>0.78949999999999998</v>
+      </c>
+      <c r="I44">
+        <v>0.78659999999999997</v>
+      </c>
+      <c r="J44">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="K44">
+        <v>0.74434999999999996</v>
+      </c>
+      <c r="L44">
+        <v>0.67215000000000003</v>
+      </c>
+      <c r="M44">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>0.93105000000000004</v>
+      </c>
+      <c r="C45">
+        <v>0.89385000000000003</v>
+      </c>
+      <c r="D45">
+        <v>0.86555000000000004</v>
+      </c>
+      <c r="E45">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="F45">
+        <v>0.82679999999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="H45">
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="I45">
+        <v>0.78305000000000002</v>
+      </c>
+      <c r="J45">
+        <v>0.75985000000000003</v>
+      </c>
+      <c r="K45">
+        <v>0.74519999999999997</v>
+      </c>
+      <c r="L45">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="M45">
+        <v>0.62365000000000004</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="C46">
+        <v>0.88290000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.86685000000000001</v>
+      </c>
+      <c r="E46">
+        <v>0.83994999999999997</v>
+      </c>
+      <c r="F46">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.80495000000000005</v>
+      </c>
+      <c r="H46">
+        <v>0.78864999999999996</v>
+      </c>
+      <c r="I46">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="J46">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="K46">
+        <v>0.74734999999999996</v>
+      </c>
+      <c r="L46">
+        <v>0.66935</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.91654999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.88314999999999999</v>
+      </c>
+      <c r="D47">
+        <v>0.87244999999999995</v>
+      </c>
+      <c r="E47">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F47">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="G47">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="H47">
+        <v>0.78534999999999999</v>
+      </c>
+      <c r="I47">
+        <v>0.78434999999999999</v>
+      </c>
+      <c r="J47">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="K47">
+        <v>0.74975000000000003</v>
+      </c>
+      <c r="L47">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.91815000000000002</v>
+      </c>
+      <c r="C48">
+        <v>0.89015</v>
+      </c>
+      <c r="D48">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="E48">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="F48">
+        <v>0.82184999999999997</v>
+      </c>
+      <c r="G48">
+        <v>0.8</v>
+      </c>
+      <c r="H48">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="I48">
+        <v>0.78515000000000001</v>
+      </c>
+      <c r="J48">
+        <v>0.74714999999999998</v>
+      </c>
+      <c r="K48">
+        <v>0.74680000000000002</v>
+      </c>
+      <c r="L48">
+        <v>0.66825000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.91564999999999996</v>
+      </c>
+      <c r="C49">
+        <v>0.89124999999999999</v>
+      </c>
+      <c r="D49">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.81340000000000001</v>
+      </c>
+      <c r="G49">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="H49">
+        <v>0.78244999999999998</v>
+      </c>
+      <c r="I49">
+        <v>0.78195000000000003</v>
+      </c>
+      <c r="J49">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="K49">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="L49">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.92035</v>
+      </c>
+      <c r="C50">
+        <v>0.88554999999999995</v>
+      </c>
+      <c r="D50">
+        <v>0.87165000000000004</v>
+      </c>
+      <c r="E50">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.81420000000000003</v>
+      </c>
+      <c r="G50">
+        <v>0.79315000000000002</v>
+      </c>
+      <c r="H50">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I50">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="J50">
+        <v>0.74914999999999998</v>
+      </c>
+      <c r="K50">
+        <v>0.74185000000000001</v>
+      </c>
+      <c r="L50">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="C51">
+        <v>0.88815</v>
+      </c>
+      <c r="D51">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.84175</v>
+      </c>
+      <c r="F51">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="G51">
+        <v>0.79454999999999998</v>
+      </c>
+      <c r="H51">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="I51">
+        <v>0.78334999999999999</v>
+      </c>
+      <c r="J51">
+        <v>0.74509999999999998</v>
+      </c>
+      <c r="K51">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>0.9254</v>
+      </c>
+      <c r="C52">
+        <v>0.88854999999999995</v>
+      </c>
+      <c r="D52">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.84794999999999998</v>
+      </c>
+      <c r="F52">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0.8</v>
+      </c>
+      <c r="H52">
+        <v>0.7843</v>
+      </c>
+      <c r="I52">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="J52">
+        <v>0.74104999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0.74095</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>0.91220000000000001</v>
+      </c>
+      <c r="C53">
+        <v>0.88929999999999998</v>
+      </c>
+      <c r="D53">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="E53">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="F53">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="G53">
+        <v>0.80105000000000004</v>
+      </c>
+      <c r="H53">
+        <v>0.7873</v>
+      </c>
+      <c r="I53">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="J53">
+        <v>0.74345000000000006</v>
+      </c>
+      <c r="K53">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="C54">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="D54">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="E54">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="F54">
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.80569999999999997</v>
+      </c>
+      <c r="H54">
+        <v>0.78374999999999995</v>
+      </c>
+      <c r="I54">
+        <v>0.76624999999999999</v>
+      </c>
+      <c r="J54">
+        <v>0.74514999999999998</v>
+      </c>
+      <c r="K54">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="C55">
+        <v>0.88244999999999996</v>
+      </c>
+      <c r="D55">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="E55">
+        <v>0.83845000000000003</v>
+      </c>
+      <c r="F55">
+        <v>0.82979999999999998</v>
+      </c>
+      <c r="G55">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="H55">
+        <v>0.78769999999999996</v>
+      </c>
+      <c r="I55">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="J55">
+        <v>0.74985000000000002</v>
+      </c>
+      <c r="K55">
+        <v>0.74385000000000001</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="C56">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="D56">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="E56">
+        <v>0.83955000000000002</v>
+      </c>
+      <c r="F56">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="G56">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="H56">
+        <v>0.78634999999999999</v>
+      </c>
+      <c r="I56">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="J56">
+        <v>0.75060000000000004</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>0.92225000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.88254999999999995</v>
+      </c>
+      <c r="D57">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="E57">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="F57">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G57">
+        <v>0.80905000000000005</v>
+      </c>
+      <c r="H57">
+        <v>0.78025</v>
+      </c>
+      <c r="I57">
+        <v>0.76315</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>0.92120000000000002</v>
+      </c>
+      <c r="C58">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="D58">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="E58">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="F58">
+        <v>0.81605000000000005</v>
+      </c>
+      <c r="G58">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="H58">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="C59">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="D59">
+        <v>0.87355000000000005</v>
+      </c>
+      <c r="E59">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="F59">
+        <v>0.81415000000000004</v>
+      </c>
+      <c r="G59">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="C60">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="D60">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="E60">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="F60">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="C61">
+        <v>0.88834999999999997</v>
+      </c>
+      <c r="D61">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="E61">
+        <v>0.83455000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>0.92815000000000003</v>
+      </c>
+      <c r="C62">
+        <v>0.88385000000000002</v>
+      </c>
+      <c r="D62">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0.93059999999999998</v>
+      </c>
+      <c r="C63">
+        <v>0.88190000000000002</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>0.93</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
